--- a/demo/py_outputs/Center_Bihar_hits.xlsx
+++ b/demo/py_outputs/Center_Bihar_hits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
   <si>
     <t>censuscode2011</t>
   </si>
@@ -94,12 +94,18 @@
     <t>Latest_Appl_Date</t>
   </si>
   <si>
+    <t>Jalsain</t>
+  </si>
+  <si>
     <t>Barhampatti</t>
   </si>
   <si>
     <t>Haridih</t>
   </si>
   <si>
+    <t>Saho</t>
+  </si>
+  <si>
     <t>Barmatpur</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>Shahpur</t>
   </si>
   <si>
+    <t>Madhubani</t>
+  </si>
+  <si>
     <t>Darbhanga</t>
   </si>
   <si>
@@ -145,10 +154,13 @@
     <t>Rural</t>
   </si>
   <si>
+    <t>Categ-6</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>Categ-6</t>
+    <t>Phulparas</t>
   </si>
   <si>
     <t>Benipur</t>
@@ -160,10 +172,13 @@
     <t>Rosera</t>
   </si>
   <si>
+    <t>sahri-lanka_8873</t>
+  </si>
+  <si>
     <t>narayanpur_6075</t>
   </si>
   <si>
-    <t>purpathar_7740; purpathar_6831</t>
+    <t>purpathar_6831; purpathar_7740</t>
   </si>
   <si>
     <t>ijraha_5514</t>
@@ -175,6 +190,9 @@
     <t>malikana-bharwari_7531</t>
   </si>
   <si>
+    <t>thathtri_8838</t>
+  </si>
+  <si>
     <t>brahampatti-_5690</t>
   </si>
   <si>
@@ -203,6 +221,42 @@
   </si>
   <si>
     <t>ijraha_5514; ijraha_5513</t>
+  </si>
+  <si>
+    <t>05/21/2024</t>
+  </si>
+  <si>
+    <t>03/08/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>05/22/2024</t>
+  </si>
+  <si>
+    <t>04/23/2024</t>
+  </si>
+  <si>
+    <t>04/22/2024</t>
+  </si>
+  <si>
+    <t>03/12/2024</t>
+  </si>
+  <si>
+    <t>04/25/2024</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>04/16/2024</t>
+  </si>
+  <si>
+    <t>03/23/2024</t>
+  </si>
+  <si>
+    <t>03/29/2024</t>
   </si>
 </sst>
 </file>
@@ -560,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,52 +702,52 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2">
-        <v>227292</v>
+        <v>220670</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2">
-        <v>847202</v>
+        <v>847411</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2">
-        <v>5546</v>
+        <v>6262</v>
       </c>
       <c r="G2">
-        <v>1051</v>
+        <v>1280</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -709,11 +763,14 @@
       </c>
       <c r="Y2">
         <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3">
-        <v>227660</v>
+        <v>227292</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -722,43 +779,43 @@
         <v>847202</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>32612</v>
+        <v>5546</v>
       </c>
       <c r="G3">
-        <v>6459</v>
+        <v>1051</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R3">
         <v>131</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -774,56 +831,59 @@
       </c>
       <c r="Y3">
         <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4">
-        <v>228669</v>
+        <v>227660</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4">
-        <v>843131</v>
+        <v>847202</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>1968</v>
+        <v>32612</v>
       </c>
       <c r="G4">
-        <v>292</v>
+        <v>6459</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R4">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -839,59 +899,59 @@
       </c>
       <c r="Y4">
         <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5">
-        <v>237199</v>
+        <v>227702</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5">
-        <v>848208</v>
+        <v>847202</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5">
-        <v>7456</v>
+        <v>27390</v>
       </c>
       <c r="G5">
-        <v>1755</v>
+        <v>5124</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="s">
-        <v>56</v>
-      </c>
       <c r="Q5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="R5">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="S5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -906,57 +966,60 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6">
-        <v>237204</v>
+        <v>228669</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6">
-        <v>848208</v>
+        <v>843131</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>2076</v>
+        <v>1968</v>
       </c>
       <c r="G6">
-        <v>402</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R6">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -972,56 +1035,62 @@
       </c>
       <c r="Y6">
         <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
-        <v>237397</v>
+        <v>237199</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7">
-        <v>848202</v>
+        <v>848208</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7">
-        <v>1351</v>
+        <v>7456</v>
       </c>
       <c r="G7">
-        <v>270</v>
+        <v>1755</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="R7">
         <v>149</v>
       </c>
       <c r="S7">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="T7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1030,69 +1099,72 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8">
-        <v>237426</v>
+        <v>237204</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8">
-        <v>848202</v>
+        <v>848208</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8">
-        <v>1516</v>
+        <v>2076</v>
       </c>
       <c r="G8">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="R8">
         <v>149</v>
       </c>
       <c r="S8">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1101,12 +1173,15 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9">
-        <v>237463</v>
+        <v>237397</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -1115,43 +1190,43 @@
         <v>848202</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F9">
-        <v>2579</v>
+        <v>1351</v>
       </c>
       <c r="G9">
-        <v>548</v>
+        <v>270</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
-        <v>58</v>
+      <c r="L9" t="s">
+        <v>53</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R9">
         <v>149</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1166,12 +1241,15 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10">
-        <v>237464</v>
+        <v>237426</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -1180,46 +1258,43 @@
         <v>848202</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>7808</v>
+        <v>1516</v>
       </c>
       <c r="G10">
-        <v>1554</v>
+        <v>343</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R10">
         <v>149</v>
       </c>
       <c r="S10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1234,12 +1309,15 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11">
-        <v>237466</v>
+        <v>237463</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -1248,43 +1326,43 @@
         <v>848202</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F11">
-        <v>14925</v>
+        <v>2579</v>
       </c>
       <c r="G11">
-        <v>3052</v>
+        <v>548</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R11">
         <v>149</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1300,11 +1378,14 @@
       </c>
       <c r="Y11">
         <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12">
-        <v>237467</v>
+        <v>237464</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -1313,58 +1394,200 @@
         <v>848202</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>3923</v>
+        <v>7808</v>
       </c>
       <c r="G12">
-        <v>738</v>
+        <v>1554</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="P12" t="s">
+        <v>65</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="R12">
         <v>149</v>
       </c>
       <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>237466</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>848202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>14925</v>
+      </c>
+      <c r="G13">
+        <v>3052</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13">
+        <v>149</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>237467</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>848202</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>3923</v>
+      </c>
+      <c r="G14">
+        <v>738</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14">
+        <v>149</v>
+      </c>
+      <c r="S14">
         <v>30</v>
       </c>
-      <c r="T12">
+      <c r="T14">
         <v>9</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>10</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
